--- a/model/compared_results/webpage_result/webpage_results.xlsx
+++ b/model/compared_results/webpage_result/webpage_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9691</v>
+        <v>0.9711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8593</v>
+        <v>0.8633999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9723000000000001</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7977</v>
+        <v>0.8069</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9139</v>
+        <v>0.9171</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9755</v>
+        <v>0.9756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8051</v>
+        <v>0.8058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7355</v>
+        <v>0.7456</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9157999999999999</v>
+        <v>0.9188</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9651</v>
+        <v>0.9675</v>
       </c>
       <c r="C3" t="n">
         <v>0.8879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9674</v>
+        <v>0.9698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7863</v>
+        <v>0.7946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9267</v>
+        <v>0.9278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9738</v>
+        <v>0.9729</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8077</v>
+        <v>0.8078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7201</v>
+        <v>0.7286</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9276</v>
+        <v>0.9288</v>
       </c>
     </row>
     <row r="4">
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8993</v>
+        <v>0.8964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9133</v>
+        <v>0.9164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8989</v>
+        <v>0.8959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6425999999999999</v>
+        <v>0.6385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9061</v>
+        <v>0.906</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9627</v>
+        <v>0.964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.601</v>
+        <v>0.6044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6031</v>
+        <v>0.6005</v>
       </c>
       <c r="J4" t="n">
         <v>0.9061</v>
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9085</v>
+        <v>0.9079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.7768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9124</v>
+        <v>0.9117</v>
       </c>
       <c r="E5" t="n">
         <v>0.6366000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8391</v>
+        <v>0.8415</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9227</v>
+        <v>0.9256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3461</v>
+        <v>0.3498</v>
       </c>
       <c r="I5" t="n">
         <v>0.5983000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.842</v>
+        <v>0.8442</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8194</v>
+        <v>0.8153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8144</v>
+        <v>0.8093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8195</v>
+        <v>0.8154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5659</v>
+        <v>0.5577</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8133</v>
+        <v>0.8098</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9048</v>
+        <v>0.9066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3605</v>
+        <v>0.3866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.569</v>
+        <v>0.5629</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8124</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9139</v>
+        <v>0.9131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9225</v>
+        <v>0.9205</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9137</v>
+        <v>0.9129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6657999999999999</v>
+        <v>0.6641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.918</v>
+        <v>0.9167</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9727</v>
+        <v>0.9714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6433</v>
+        <v>0.6483</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6177</v>
+        <v>0.6165</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9181</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="8">
@@ -789,6 +789,176 @@
       </c>
       <c r="J10" t="n">
         <v>0.8465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7298</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9024</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8532999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8461</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SMOTEBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9649</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8443000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7105</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8528</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OverBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5413</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7311</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9537</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6302</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7648</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OverBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9489</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8563</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9516</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9026999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9607</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6936</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9039</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SMOTEBaggingClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9788</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5107</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7829</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7116</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9553</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6283</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8252</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7516</v>
       </c>
     </row>
   </sheetData>
